--- a/Translations/en-sv-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-sv-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bekanta med livsmedelsgruppen frukt och grönsaker. Uppgiftens komplexitet eskalerar med framåtriktad nivå: I början är fokuset på frukterna och grönsakerna ensam, och sedan spelas med sina färger.</t>
+          <t>Sök efter frukt och grönsaker! Skiva dem för att tjäna poäng och lär dig om deras näringsvärde och färgglada palett, hur många du bör konsumera dagligen och smarta sätt att lägga till dem i din kost.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Din uppgift är att bara skära de frukter du ser.</t>
+          <t>Din uppgift är att skiva frukterna!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Frukter är bland de livsmedel som det rekommenderas att du konsumerar dagligen. I allmänhet är 2-3 frukter per dag ditt slutliga mål. Att välja en frukt som mellanmål, i skolan eller på eftermiddagen hjälper dig att uppnå ditt dagliga mål. För att göra det, ge frukt en prioritet: ät först frukten, sedan allt annat!</t>
+          <t>Frukt är bland de livsmedel du bör konsumera dagligen. I allmänhet är 2-3 frukter per dag ditt slutmål. Att välja en frukt som mellanmål, i skolan eller på eftermiddagen, hjälper dig att nå ditt dagliga mål. För att göra det, prioritera frukt: ät först frukten, sedan allt annat!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Din uppgift är att bara skära de grönsaker du ser.</t>
+          <t>Din uppgift är att skiva grönsakerna!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Grönsaker, som frukt, rekommenderas också att konsumeras dagligen. De kan serveras som en sallad eller till och med som en huvudrätt. För att uppfylla ditt vardagliga mål, följ dina huvudmåltider med grönsaker!</t>
+          <t>Grönsaker, liksom frukt, bör konsumeras dagligen. De kan serveras som sallad eller till och med som huvudrätt. För att nå ditt vardagliga mål, komplettera dina huvudmåltider med grönsaker!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Din uppgift är att bara skära F&amp;V med röd färg.</t>
+          <t>Din uppgift är att skiva frukter och grönsaker med röd färg!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bekanta med livsmedelsgruppen av mejeriprodukter. Uppgiftens komplexitet ökar med varje nivå: För det första är fokuset på att identifiera och skära vanliga mejeriprodukter; Sedan går eleverna vidare för att skära bilden som visar den rekommenderade dagliga konsumtionen av mejeriprodukter; Slutligen identifierar och skivar de bilden som belyser det viktigaste näringsämne som finns i mejerier, dvs kalcium.</t>
+          <t>Sök efter mejeriprodukterna! Skiva dem för att tjäna poäng och lär dig om deras viktigaste näringsämnen, hur många du bör konsumera dagligen, deras portionsstorlek och smarta sätt att lägga till dem i din kost.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Din uppgift är att bara skära de mejeriprodukter du ser.</t>
+          <t>Din uppgift är att skiva mejeriprodukterna!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Gör mejerier till en daglig vana! Inkludera dem tidigt på din dag och bygga friska vanor som varar!</t>
+          <t>Gör mejeriprodukter till en daglig vana! Inkludera dem tidigt på dagen och bygg upp hälsosamma vanor som håller!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Mejeriprodukter som mjölk, yoghurt och ost är livsmedel som rekommenderas för daglig konsumtion eftersom de ger viktiga näringsämnen för din tillväxt och utveckling.</t>
+          <t>Mejeriprodukter som mjölk, yoghurt och ost är mat du bör äta dagligen eftersom de ger viktiga näringsämnen för din tillväxt och utveckling.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Din uppgift är att bara skära den rekommenderade dagliga konsumtionen av mejeriprodukter du ser.</t>
+          <t>Din uppgift är att skära upp den rekommenderade dagliga konsumtionen av mejeriprodukter!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gå med mejerier varje dag!</t>
+          <t>Gå med mejeriprodukter varje dag!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>För att uppfylla målet om 3-4 portioner mjölkprodukter per dag, försök att inkludera ett glas mjölk med frukost, yoghurt som ett mellanmål eller ost med din lunch eller middag. Gör det till en vana - koppla dina måltider eller snacks med ett mejerialternativ för att hålla dig stark och frisk!</t>
+          <t>För att nå målet på 3-4 portioner mejeriprodukter per dag, prova att inkludera ett glas mjölk till frukost, yoghurt som mellanmål eller ost till din lunch eller middag. Gör det till en vana - koppla ihop dina måltider eller mellanmål med en mejeriprodukt för att förbli stark och frisk!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Din uppgift är att identifiera vad som räknas som en del av en mejeriprodukt. Välj alla objekt som representerar en standardmejeridel.</t>
+          <t>Din uppgift är att skiva det som räknas som en del av en mejeriprodukt.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Din uppgift är att bara skära det viktigaste näringsämne som finns i mejeriprodukter. Observera att: CA: Kalcium, Fe: järn.</t>
+          <t>Din uppgift är att skära upp det viktigaste näringsämnet som finns i mejeriprodukter! Observera att: Ca: kalcium, Fe: Järn, ve: vitamin E.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Mejeriprodukter är en av de bästa källorna till kalcium (CA), som hjälper till att bygga starka ben och tänder.</t>
+          <t>Mejeriprodukter är en av de bästa källorna till kalcium, som hjälper till att bygga starka ben och tänder.</t>
         </is>
       </c>
     </row>
